--- a/docs/data/taxonomy.xlsx
+++ b/docs/data/taxonomy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudolphc/Desktop/Git_Projects/sluseallab/commuting_review/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortrudolph/Dropbox/Research/Current Research/OPR Commuting Stress Systematic Review &amp; MA/Commuting Stress/Submissions/OPR Special Issue/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BCFDDC-E8A9-0346-8D7B-BC72F956A30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E2DD3-6A34-E04A-AFA9-EAC0216CAEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="680" windowWidth="28800" windowHeight="15980" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
+    <workbookView xWindow="45020" yWindow="-7640" windowWidth="28800" windowHeight="15980" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="taxonomy" sheetId="4" r:id="rId1"/>
@@ -635,12 +635,6 @@
     <t>Demand Domain</t>
   </si>
   <si>
-    <t>Objective Commuting Demands</t>
-  </si>
-  <si>
-    <t>Subjective Commuting Appraisals</t>
-  </si>
-  <si>
     <t>Outcome Domain</t>
   </si>
   <si>
@@ -660,6 +654,12 @@
   </si>
   <si>
     <t>Wellbeing Outcomes</t>
+  </si>
+  <si>
+    <t>Commuting Demands</t>
+  </si>
+  <si>
+    <t>Commuting Appraisals</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:O401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151:E325"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1143,10 +1143,10 @@
         <v>197</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>9</v>
@@ -1163,16 +1163,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>168</v>
@@ -1196,16 +1196,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
@@ -1229,16 +1229,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
@@ -1255,16 +1255,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -1281,16 +1281,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>115</v>
@@ -1314,16 +1314,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>6</v>
@@ -1347,16 +1347,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
@@ -1380,16 +1380,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -1413,16 +1413,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>16</v>
@@ -1446,16 +1446,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>58</v>
@@ -1479,16 +1479,16 @@
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>122</v>
@@ -1512,16 +1512,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>180</v>
@@ -1545,16 +1545,16 @@
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>10</v>
@@ -1578,16 +1578,16 @@
         <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>36</v>
@@ -1604,16 +1604,16 @@
         <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
@@ -1630,16 +1630,16 @@
         <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
@@ -1656,16 +1656,16 @@
         <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
@@ -1689,16 +1689,16 @@
         <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>58</v>
@@ -1722,16 +1722,16 @@
         <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>147</v>
@@ -1755,16 +1755,16 @@
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>148</v>
@@ -1788,16 +1788,16 @@
         <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>149</v>
@@ -1821,16 +1821,16 @@
         <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>96</v>
@@ -1854,16 +1854,16 @@
         <v>58</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>164</v>
@@ -1887,16 +1887,16 @@
         <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>8</v>
@@ -1920,16 +1920,16 @@
         <v>61</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>6</v>
@@ -1953,16 +1953,16 @@
         <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>17</v>
@@ -1986,16 +1986,16 @@
         <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>183</v>
@@ -2019,16 +2019,16 @@
         <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>184</v>
@@ -2052,16 +2052,16 @@
         <v>72</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>6</v>
@@ -2079,16 +2079,16 @@
         <v>73</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>16</v>
@@ -2105,16 +2105,16 @@
         <v>74</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>16</v>
@@ -2137,16 +2137,16 @@
         <v>75</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>63</v>
@@ -2170,16 +2170,16 @@
         <v>77</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>103</v>
@@ -2203,16 +2203,16 @@
         <v>78</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>14</v>
@@ -2236,16 +2236,16 @@
         <v>80</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>79</v>
@@ -2269,16 +2269,16 @@
         <v>81</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>53</v>
@@ -2302,16 +2302,16 @@
         <v>84</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>121</v>
@@ -2335,16 +2335,16 @@
         <v>85</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>122</v>
@@ -2368,16 +2368,16 @@
         <v>87</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>7</v>
@@ -2401,16 +2401,16 @@
         <v>88</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>16</v>
@@ -2434,16 +2434,16 @@
         <v>90</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>16</v>
@@ -2467,16 +2467,16 @@
         <v>91</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>10</v>
@@ -2500,16 +2500,16 @@
         <v>92</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>16</v>
@@ -2533,16 +2533,16 @@
         <v>94</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>168</v>
@@ -2566,16 +2566,16 @@
         <v>95</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>169</v>
@@ -2599,16 +2599,16 @@
         <v>96</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>170</v>
@@ -2632,16 +2632,16 @@
         <v>97</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>111</v>
@@ -2665,16 +2665,16 @@
         <v>98</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>60</v>
@@ -2698,16 +2698,16 @@
         <v>99</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -2731,16 +2731,16 @@
         <v>100</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>14</v>
@@ -2764,16 +2764,16 @@
         <v>103</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>103</v>
@@ -2797,16 +2797,16 @@
         <v>104</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>14</v>
@@ -2830,16 +2830,16 @@
         <v>106</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>85</v>
@@ -2863,16 +2863,16 @@
         <v>108</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>53</v>
@@ -2896,16 +2896,16 @@
         <v>111</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>122</v>
@@ -2929,16 +2929,16 @@
         <v>112</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>121</v>
@@ -2962,16 +2962,16 @@
         <v>115</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>7</v>
@@ -2995,16 +2995,16 @@
         <v>119</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>14</v>
@@ -3028,16 +3028,16 @@
         <v>124</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>147</v>
@@ -3061,16 +3061,16 @@
         <v>125</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>148</v>
@@ -3094,16 +3094,16 @@
         <v>126</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>149</v>
@@ -3127,16 +3127,16 @@
         <v>137</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>9</v>
@@ -3153,16 +3153,16 @@
         <v>139</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>39</v>
@@ -3186,16 +3186,16 @@
         <v>140</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>10</v>
@@ -3219,16 +3219,16 @@
         <v>141</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>41</v>
@@ -3252,16 +3252,16 @@
         <v>142</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>42</v>
@@ -3285,16 +3285,16 @@
         <v>143</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>43</v>
@@ -3318,16 +3318,16 @@
         <v>145</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>6</v>
@@ -3351,16 +3351,16 @@
         <v>149</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>17</v>
@@ -3384,16 +3384,16 @@
         <v>153</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>49</v>
@@ -3417,16 +3417,16 @@
         <v>154</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>16</v>
@@ -3450,16 +3450,16 @@
         <v>155</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>53</v>
@@ -3483,16 +3483,16 @@
         <v>156</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>54</v>
@@ -3516,16 +3516,16 @@
         <v>157</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>16</v>
@@ -3549,16 +3549,16 @@
         <v>158</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>16</v>
@@ -3582,16 +3582,16 @@
         <v>159</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>12</v>
@@ -3615,16 +3615,16 @@
         <v>161</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>57</v>
@@ -3643,16 +3643,16 @@
         <v>162</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>58</v>
@@ -3676,16 +3676,16 @@
         <v>163</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>143</v>
@@ -3709,16 +3709,16 @@
         <v>164</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>58</v>
@@ -3742,16 +3742,16 @@
         <v>165</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>65</v>
@@ -3775,16 +3775,16 @@
         <v>166</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>65</v>
@@ -3801,16 +3801,16 @@
         <v>167</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>66</v>
@@ -3827,16 +3827,16 @@
         <v>174</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>17</v>
@@ -3853,16 +3853,16 @@
         <v>176</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>85</v>
@@ -3879,16 +3879,16 @@
         <v>178</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>12</v>
@@ -3905,16 +3905,16 @@
         <v>179</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>14</v>
@@ -3931,16 +3931,16 @@
         <v>181</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>6</v>
@@ -3957,16 +3957,16 @@
         <v>183</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>14</v>
@@ -3983,16 +3983,16 @@
         <v>186</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>16</v>
@@ -4009,16 +4009,16 @@
         <v>187</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>14</v>
@@ -4035,16 +4035,16 @@
         <v>188</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>95</v>
@@ -4061,16 +4061,16 @@
         <v>189</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>17</v>
@@ -4087,16 +4087,16 @@
         <v>190</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>96</v>
@@ -4113,16 +4113,16 @@
         <v>192</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>16</v>
@@ -4146,16 +4146,16 @@
         <v>197</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>16</v>
@@ -4179,16 +4179,16 @@
         <v>199</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>11</v>
@@ -4212,16 +4212,16 @@
         <v>203</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>103</v>
@@ -4245,16 +4245,16 @@
         <v>208</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>85</v>
@@ -4278,16 +4278,16 @@
         <v>209</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>53</v>
@@ -4311,16 +4311,16 @@
         <v>213</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>14</v>
@@ -4344,16 +4344,16 @@
         <v>216</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>7</v>
@@ -4377,16 +4377,16 @@
         <v>217</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>6</v>
@@ -4410,16 +4410,16 @@
         <v>218</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>6</v>
@@ -4443,16 +4443,16 @@
         <v>219</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>121</v>
@@ -4469,16 +4469,16 @@
         <v>220</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>122</v>
@@ -4495,16 +4495,16 @@
         <v>222</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>63</v>
@@ -4521,16 +4521,16 @@
         <v>224</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>16</v>
@@ -4547,16 +4547,16 @@
         <v>228</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>111</v>
@@ -4573,16 +4573,16 @@
         <v>230</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>16</v>
@@ -4599,16 +4599,16 @@
         <v>231</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>79</v>
@@ -4632,16 +4632,16 @@
         <v>232</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>6</v>
@@ -4665,16 +4665,16 @@
         <v>234</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>115</v>
@@ -4698,16 +4698,16 @@
         <v>235</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>6</v>
@@ -4731,16 +4731,16 @@
         <v>236</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>15</v>
@@ -4764,16 +4764,16 @@
         <v>239</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>12</v>
@@ -4797,16 +4797,16 @@
         <v>240</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>111</v>
@@ -4830,16 +4830,16 @@
         <v>243</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>10</v>
@@ -4863,16 +4863,16 @@
         <v>245</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>16</v>
@@ -4896,16 +4896,16 @@
         <v>246</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>66</v>
@@ -4929,16 +4929,16 @@
         <v>247</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>65</v>
@@ -4962,16 +4962,16 @@
         <v>249</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>135</v>
@@ -4995,16 +4995,16 @@
         <v>253</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>85</v>
@@ -5028,16 +5028,16 @@
         <v>255</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>14</v>
@@ -5061,16 +5061,16 @@
         <v>257</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>16</v>
@@ -5094,16 +5094,16 @@
         <v>258</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>13</v>
@@ -5127,16 +5127,16 @@
         <v>266</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>159</v>
@@ -5160,16 +5160,16 @@
         <v>267</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>158</v>
@@ -5193,16 +5193,16 @@
         <v>272</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>96</v>
@@ -5226,16 +5226,16 @@
         <v>274</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>11</v>
@@ -5259,16 +5259,16 @@
         <v>278</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>16</v>
@@ -5292,16 +5292,16 @@
         <v>285</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>17</v>
@@ -5325,16 +5325,16 @@
         <v>286</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>183</v>
@@ -5358,16 +5358,16 @@
         <v>287</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>184</v>
@@ -5391,16 +5391,16 @@
         <v>296</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>16</v>
@@ -5424,16 +5424,16 @@
         <v>298</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>103</v>
@@ -5457,16 +5457,16 @@
         <v>299</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>14</v>
@@ -5490,16 +5490,16 @@
         <v>301</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>79</v>
@@ -5523,16 +5523,16 @@
         <v>302</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>53</v>
@@ -5556,16 +5556,16 @@
         <v>305</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>121</v>
@@ -5589,16 +5589,16 @@
         <v>306</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>122</v>
@@ -5622,16 +5622,16 @@
         <v>312</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>79</v>
@@ -5655,16 +5655,16 @@
         <v>316</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>63</v>
@@ -5688,16 +5688,16 @@
         <v>317</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>6</v>
@@ -5721,16 +5721,16 @@
         <v>318</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>63</v>
@@ -5754,16 +5754,16 @@
         <v>320</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>85</v>
@@ -5787,16 +5787,16 @@
         <v>321</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>16</v>
@@ -5820,16 +5820,16 @@
         <v>323</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>85</v>
@@ -5853,16 +5853,16 @@
         <v>324</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>16</v>
@@ -5886,16 +5886,16 @@
         <v>1</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>76</v>
@@ -5919,16 +5919,16 @@
         <v>2</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>76</v>
@@ -5952,16 +5952,16 @@
         <v>5</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>30</v>
@@ -5985,16 +5985,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>18</v>
@@ -6018,16 +6018,16 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>81</v>
@@ -6051,16 +6051,16 @@
         <v>9</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>19</v>
@@ -6084,16 +6084,16 @@
         <v>10</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>34</v>
@@ -6117,16 +6117,16 @@
         <v>11</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>37</v>
@@ -6150,16 +6150,16 @@
         <v>16</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>37</v>
@@ -6183,16 +6183,16 @@
         <v>17</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>19</v>
@@ -6216,16 +6216,16 @@
         <v>18</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>34</v>
@@ -6249,16 +6249,16 @@
         <v>19</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>104</v>
@@ -6282,16 +6282,16 @@
         <v>20</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>18</v>
@@ -6315,16 +6315,16 @@
         <v>22</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>18</v>
@@ -6348,16 +6348,16 @@
         <v>24</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>4</v>
@@ -6381,16 +6381,16 @@
         <v>25</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>120</v>
@@ -6414,16 +6414,16 @@
         <v>29</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>20</v>
@@ -6447,16 +6447,16 @@
         <v>31</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>76</v>
@@ -6480,16 +6480,16 @@
         <v>32</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>20</v>
@@ -6513,16 +6513,16 @@
         <v>33</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>18</v>
@@ -6546,16 +6546,16 @@
         <v>34</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>30</v>
@@ -6579,16 +6579,16 @@
         <v>35</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>18</v>
@@ -6612,16 +6612,16 @@
         <v>37</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>37</v>
@@ -6645,16 +6645,16 @@
         <v>38</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>19</v>
@@ -6678,16 +6678,16 @@
         <v>39</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>50</v>
@@ -6711,16 +6711,16 @@
         <v>42</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>74</v>
@@ -6744,16 +6744,16 @@
         <v>43</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>67</v>
@@ -6777,16 +6777,16 @@
         <v>44</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>5</v>
@@ -6810,16 +6810,16 @@
         <v>45</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>67</v>
@@ -6843,16 +6843,16 @@
         <v>51</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>18</v>
@@ -6876,16 +6876,16 @@
         <v>52</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>52</v>
@@ -6909,16 +6909,16 @@
         <v>53</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>5</v>
@@ -6942,16 +6942,16 @@
         <v>54</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>97</v>
@@ -6975,16 +6975,16 @@
         <v>56</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>30</v>
@@ -7008,16 +7008,16 @@
         <v>57</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>163</v>
@@ -7041,16 +7041,16 @@
         <v>60</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>5</v>
@@ -7074,16 +7074,16 @@
         <v>65</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>185</v>
@@ -7107,16 +7107,16 @@
         <v>66</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>20</v>
@@ -7140,16 +7140,16 @@
         <v>67</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>18</v>
@@ -7173,16 +7173,16 @@
         <v>68</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>19</v>
@@ -7206,16 +7206,16 @@
         <v>69</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>20</v>
@@ -7239,16 +7239,16 @@
         <v>70</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>18</v>
@@ -7272,16 +7272,16 @@
         <v>71</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>193</v>
@@ -7305,16 +7305,16 @@
         <v>76</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>19</v>
@@ -7338,16 +7338,16 @@
         <v>79</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>105</v>
@@ -7371,16 +7371,16 @@
         <v>82</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>74</v>
@@ -7404,16 +7404,16 @@
         <v>83</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>67</v>
@@ -7437,16 +7437,16 @@
         <v>86</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>4</v>
@@ -7470,16 +7470,16 @@
         <v>89</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>44</v>
@@ -7503,16 +7503,16 @@
         <v>93</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>50</v>
@@ -7536,16 +7536,16 @@
         <v>101</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>19</v>
@@ -7569,16 +7569,16 @@
         <v>102</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>19</v>
@@ -7602,16 +7602,16 @@
         <v>105</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>104</v>
@@ -7635,16 +7635,16 @@
         <v>107</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>105</v>
@@ -7668,16 +7668,16 @@
         <v>109</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>74</v>
@@ -7701,16 +7701,16 @@
         <v>110</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>67</v>
@@ -7734,16 +7734,16 @@
         <v>113</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>4</v>
@@ -7767,16 +7767,16 @@
         <v>114</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>120</v>
@@ -7800,16 +7800,16 @@
         <v>116</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>18</v>
@@ -7833,16 +7833,16 @@
         <v>117</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>18</v>
@@ -7866,16 +7866,16 @@
         <v>118</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>19</v>
@@ -7899,16 +7899,16 @@
         <v>120</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>74</v>
@@ -7932,16 +7932,16 @@
         <v>121</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>5</v>
@@ -7965,16 +7965,16 @@
         <v>122</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>136</v>
@@ -7998,16 +7998,16 @@
         <v>123</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>120</v>
@@ -8031,16 +8031,16 @@
         <v>127</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>190</v>
@@ -8064,16 +8064,16 @@
         <v>128</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>26</v>
@@ -8097,16 +8097,16 @@
         <v>129</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>18</v>
@@ -8130,19 +8130,19 @@
         <v>130</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G219" s="4" t="s">
         <v>27</v>
@@ -8163,16 +8163,16 @@
         <v>131</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>28</v>
@@ -8196,16 +8196,16 @@
         <v>132</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>26</v>
@@ -8229,16 +8229,16 @@
         <v>133</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>31</v>
@@ -8262,16 +8262,16 @@
         <v>134</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>19</v>
@@ -8295,16 +8295,16 @@
         <v>135</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>34</v>
@@ -8328,16 +8328,16 @@
         <v>136</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>20</v>
@@ -8361,16 +8361,16 @@
         <v>138</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>19</v>
@@ -8394,16 +8394,16 @@
         <v>144</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>5</v>
@@ -8427,16 +8427,16 @@
         <v>146</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>18</v>
@@ -8460,16 +8460,16 @@
         <v>147</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>30</v>
@@ -8493,16 +8493,16 @@
         <v>148</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>34</v>
@@ -8526,16 +8526,16 @@
         <v>150</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>26</v>
@@ -8559,16 +8559,16 @@
         <v>151</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>18</v>
@@ -8592,16 +8592,16 @@
         <v>152</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>52</v>
@@ -8625,16 +8625,16 @@
         <v>160</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>20</v>
@@ -8658,16 +8658,16 @@
         <v>168</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>20</v>
@@ -8691,16 +8691,16 @@
         <v>169</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>67</v>
@@ -8724,16 +8724,16 @@
         <v>170</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>5</v>
@@ -8757,16 +8757,16 @@
         <v>171</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>18</v>
@@ -8790,16 +8790,16 @@
         <v>172</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>76</v>
@@ -8823,16 +8823,16 @@
         <v>173</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>19</v>
@@ -8856,16 +8856,16 @@
         <v>175</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>5</v>
@@ -8889,16 +8889,16 @@
         <v>177</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>18</v>
@@ -8922,16 +8922,16 @@
         <v>180</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>18</v>
@@ -8955,16 +8955,16 @@
         <v>182</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>19</v>
@@ -8988,16 +8988,16 @@
         <v>184</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>50</v>
@@ -9021,16 +9021,16 @@
         <v>185</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>93</v>
@@ -9054,16 +9054,16 @@
         <v>191</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>97</v>
@@ -9087,16 +9087,16 @@
         <v>193</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>26</v>
@@ -9120,16 +9120,16 @@
         <v>194</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>117</v>
@@ -9153,16 +9153,16 @@
         <v>195</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>119</v>
@@ -9186,16 +9186,16 @@
         <v>196</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>118</v>
@@ -9219,16 +9219,16 @@
         <v>198</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>19</v>
@@ -9252,16 +9252,16 @@
         <v>200</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>102</v>
@@ -9285,16 +9285,16 @@
         <v>201</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>26</v>
@@ -9318,16 +9318,16 @@
         <v>202</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>20</v>
@@ -9351,16 +9351,16 @@
         <v>204</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>19</v>
@@ -9384,16 +9384,16 @@
         <v>205</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>19</v>
@@ -9417,16 +9417,16 @@
         <v>206</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>104</v>
@@ -9450,16 +9450,16 @@
         <v>207</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>105</v>
@@ -9483,16 +9483,16 @@
         <v>210</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F260" s="18" t="s">
         <v>67</v>
@@ -9516,16 +9516,16 @@
         <v>211</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F261" s="18" t="s">
         <v>74</v>
@@ -9549,16 +9549,16 @@
         <v>212</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F262" s="18" t="s">
         <v>74</v>
@@ -9582,16 +9582,16 @@
         <v>214</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F263" s="18" t="s">
         <v>4</v>
@@ -9615,16 +9615,16 @@
         <v>215</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F264" s="18" t="s">
         <v>120</v>
@@ -9648,16 +9648,16 @@
         <v>221</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F265" s="6" t="s">
         <v>50</v>
@@ -9681,16 +9681,16 @@
         <v>223</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F266" s="6" t="s">
         <v>20</v>
@@ -9714,16 +9714,16 @@
         <v>225</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F267" s="6" t="s">
         <v>76</v>
@@ -9747,16 +9747,16 @@
         <v>226</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>76</v>
@@ -9780,16 +9780,16 @@
         <v>227</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F269" s="6" t="s">
         <v>76</v>
@@ -9813,16 +9813,16 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>112</v>
@@ -9846,16 +9846,16 @@
         <v>233</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F271" s="6" t="s">
         <v>50</v>
@@ -9879,16 +9879,16 @@
         <v>237</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>37</v>
@@ -9912,16 +9912,16 @@
         <v>238</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F273" s="6" t="s">
         <v>74</v>
@@ -9945,16 +9945,16 @@
         <v>241</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F274" s="6" t="s">
         <v>127</v>
@@ -9978,16 +9978,16 @@
         <v>242</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F275" s="6" t="s">
         <v>128</v>
@@ -10011,16 +10011,16 @@
         <v>244</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F276" s="6" t="s">
         <v>67</v>
@@ -10044,16 +10044,16 @@
         <v>248</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F277" s="6" t="s">
         <v>67</v>
@@ -10077,16 +10077,16 @@
         <v>250</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F278" s="6" t="s">
         <v>67</v>
@@ -10110,16 +10110,16 @@
         <v>251</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F279" s="6" t="s">
         <v>140</v>
@@ -10143,16 +10143,16 @@
         <v>252</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F280" s="6" t="s">
         <v>141</v>
@@ -10176,16 +10176,16 @@
         <v>254</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F281" s="6" t="s">
         <v>145</v>
@@ -10209,16 +10209,16 @@
         <v>256</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F282" s="6" t="s">
         <v>19</v>
@@ -10242,16 +10242,16 @@
         <v>259</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>50</v>
@@ -10275,16 +10275,16 @@
         <v>260</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F284" s="6" t="s">
         <v>81</v>
@@ -10308,16 +10308,16 @@
         <v>261</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F285" s="6" t="s">
         <v>18</v>
@@ -10341,16 +10341,16 @@
         <v>262</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F286" s="6" t="s">
         <v>18</v>
@@ -10374,16 +10374,16 @@
         <v>263</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F287" s="6" t="s">
         <v>52</v>
@@ -10407,16 +10407,16 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F288" s="6" t="s">
         <v>30</v>
@@ -10440,16 +10440,16 @@
         <v>265</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F289" s="6" t="s">
         <v>160</v>
@@ -10473,16 +10473,16 @@
         <v>268</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F290" s="6" t="s">
         <v>30</v>
@@ -10506,16 +10506,16 @@
         <v>269</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F291" s="6" t="s">
         <v>5</v>
@@ -10539,16 +10539,16 @@
         <v>270</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F292" s="6" t="s">
         <v>18</v>
@@ -10572,16 +10572,16 @@
         <v>271</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F293" s="6" t="s">
         <v>81</v>
@@ -10605,16 +10605,16 @@
         <v>273</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F294" s="6" t="s">
         <v>18</v>
@@ -10638,16 +10638,16 @@
         <v>275</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F295" s="6" t="s">
         <v>67</v>
@@ -10671,16 +10671,16 @@
         <v>276</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F296" s="6" t="s">
         <v>20</v>
@@ -10704,16 +10704,16 @@
         <v>277</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F297" s="6" t="s">
         <v>8</v>
@@ -10737,16 +10737,16 @@
         <v>279</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F298" s="6" t="s">
         <v>4</v>
@@ -10770,16 +10770,16 @@
         <v>280</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>120</v>
@@ -10803,16 +10803,16 @@
         <v>281</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F300" s="6" t="s">
         <v>5</v>
@@ -10836,16 +10836,16 @@
         <v>282</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>19</v>
@@ -10869,16 +10869,16 @@
         <v>283</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F302" s="6" t="s">
         <v>30</v>
@@ -10902,16 +10902,16 @@
         <v>284</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F303" s="6" t="s">
         <v>19</v>
@@ -10935,16 +10935,16 @@
         <v>288</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F304" s="6" t="s">
         <v>185</v>
@@ -10968,16 +10968,16 @@
         <v>289</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F305" s="6" t="s">
         <v>20</v>
@@ -11001,16 +11001,16 @@
         <v>290</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F306" s="6" t="s">
         <v>18</v>
@@ -11034,16 +11034,16 @@
         <v>291</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F307" s="6" t="s">
         <v>18</v>
@@ -11067,16 +11067,16 @@
         <v>292</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F308" s="6" t="s">
         <v>20</v>
@@ -11100,16 +11100,16 @@
         <v>293</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F309" s="6" t="s">
         <v>81</v>
@@ -11133,16 +11133,16 @@
         <v>294</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F310" s="6" t="s">
         <v>19</v>
@@ -11166,16 +11166,16 @@
         <v>295</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F311" s="6" t="s">
         <v>52</v>
@@ -11199,16 +11199,16 @@
         <v>297</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F312" s="6" t="s">
         <v>19</v>
@@ -11232,16 +11232,16 @@
         <v>300</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F313" s="6" t="s">
         <v>105</v>
@@ -11265,16 +11265,16 @@
         <v>303</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F314" s="6" t="s">
         <v>74</v>
@@ -11298,16 +11298,16 @@
         <v>304</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F315" s="6" t="s">
         <v>67</v>
@@ -11331,16 +11331,16 @@
         <v>307</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F316" s="6" t="s">
         <v>4</v>
@@ -11364,16 +11364,16 @@
         <v>308</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F317" s="6" t="s">
         <v>19</v>
@@ -11397,16 +11397,16 @@
         <v>309</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F318" s="6" t="s">
         <v>105</v>
@@ -11430,16 +11430,16 @@
         <v>310</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F319" s="6" t="s">
         <v>37</v>
@@ -11463,16 +11463,16 @@
         <v>311</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F320" s="6" t="s">
         <v>18</v>
@@ -11496,16 +11496,16 @@
         <v>313</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>5</v>
@@ -11529,16 +11529,16 @@
         <v>314</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F322" s="4" t="s">
         <v>18</v>
@@ -11562,16 +11562,16 @@
         <v>315</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F323" s="6" t="s">
         <v>5</v>
@@ -11595,16 +11595,16 @@
         <v>319</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F324" s="6" t="s">
         <v>5</v>
@@ -11628,16 +11628,16 @@
         <v>322</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F325" s="6" t="s">
         <v>5</v>

--- a/docs/data/taxonomy.xlsx
+++ b/docs/data/taxonomy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortrudolph/Dropbox/Research/Current Research/OPR Commuting Stress Systematic Review &amp; MA/Commuting Stress/Submissions/OPR Special Issue/Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenmurphy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E2DD3-6A34-E04A-AFA9-EAC0216CAEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E589AD3-AA59-1E4D-8B4C-481789D41E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45020" yWindow="-7640" windowWidth="28800" windowHeight="15980" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4C8D9691-51F6-9D47-9215-8766C7783DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="taxonomy" sheetId="4" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:O401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2671,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>204</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>204</v>
@@ -5391,13 +5391,13 @@
         <v>296</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>204</v>
@@ -5424,7 +5424,7 @@
         <v>298</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>7</v>
@@ -5457,7 +5457,7 @@
         <v>299</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>7</v>
@@ -5490,7 +5490,7 @@
         <v>301</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>7</v>
@@ -5523,7 +5523,7 @@
         <v>302</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>7</v>
@@ -5556,7 +5556,7 @@
         <v>305</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>7</v>
@@ -5589,7 +5589,7 @@
         <v>306</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>7</v>
@@ -6480,7 +6480,7 @@
         <v>32</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>193</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>205</v>
@@ -11100,7 +11100,7 @@
         <v>293</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>3</v>
@@ -11199,7 +11199,7 @@
         <v>297</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>7</v>
@@ -11232,7 +11232,7 @@
         <v>300</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>7</v>
@@ -11265,7 +11265,7 @@
         <v>303</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>7</v>
@@ -11298,7 +11298,7 @@
         <v>304</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>7</v>
@@ -11331,7 +11331,7 @@
         <v>307</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>7</v>
@@ -11529,7 +11529,7 @@
         <v>314</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>71</v>
